--- a/payroll_comp_1st_cut_off.xlsx
+++ b/payroll_comp_1st_cut_off.xlsx
@@ -52,7 +52,7 @@
     <t>91512</t>
   </si>
   <si>
-    <t>91545</t>
+    <t>91523</t>
   </si>
   <si>
     <t>91486</t>
@@ -442,7 +442,7 @@
         <v>-2.56</v>
       </c>
       <c r="D2">
-        <v>1006.42</v>
+        <v>862.65</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>9003.860000000001</v>
+        <v>8860.09</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9003.860000000001</v>
+        <v>8860.09</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>503.48</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7003.5</v>
+        <v>7506.98</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7003.5</v>
+        <v>7506.98</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,19 +544,19 @@
         <v>15000</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-170.13</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>28.75</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>15000</v>
+        <v>13708.46</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15000</v>
+        <v>13708.46</v>
       </c>
     </row>
   </sheetData>
